--- a/data/pca/factorExposure/factorExposure_2019-01-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1094503523514366</v>
+        <v>0.06757921499906532</v>
       </c>
       <c r="C2">
-        <v>0.006510212180721247</v>
+        <v>0.03368936604910147</v>
       </c>
       <c r="D2">
-        <v>0.05487577084840505</v>
+        <v>0.01749567120656252</v>
       </c>
       <c r="E2">
-        <v>0.04016242586818664</v>
+        <v>0.04094410970738389</v>
       </c>
       <c r="F2">
-        <v>-0.1355946431662552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1351337081748255</v>
+      </c>
+      <c r="G2">
+        <v>0.06667036907020092</v>
+      </c>
+      <c r="H2">
+        <v>0.049226487768414</v>
+      </c>
+      <c r="I2">
+        <v>0.1054872467199215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2179138983587313</v>
+        <v>0.1602982299242131</v>
       </c>
       <c r="C3">
-        <v>0.1543625725847944</v>
+        <v>0.1111412185672625</v>
       </c>
       <c r="D3">
-        <v>0.007423587146178163</v>
+        <v>-0.006678740670661121</v>
       </c>
       <c r="E3">
-        <v>0.01414232713972233</v>
+        <v>0.00177576260051901</v>
       </c>
       <c r="F3">
-        <v>-0.3413516761242115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3752048246678125</v>
+      </c>
+      <c r="G3">
+        <v>0.2830259903484207</v>
+      </c>
+      <c r="H3">
+        <v>0.06457824566083048</v>
+      </c>
+      <c r="I3">
+        <v>0.3675804939799753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09881853749331114</v>
+        <v>0.07238556341471516</v>
       </c>
       <c r="C4">
-        <v>0.04168507129870445</v>
+        <v>0.04842703413465994</v>
       </c>
       <c r="D4">
-        <v>0.03963781609997943</v>
+        <v>-0.01637863958416183</v>
       </c>
       <c r="E4">
-        <v>-0.01167766635738425</v>
+        <v>0.04022058645808339</v>
       </c>
       <c r="F4">
-        <v>-0.07430190102106565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07855940203596964</v>
+      </c>
+      <c r="G4">
+        <v>0.02988305350228932</v>
+      </c>
+      <c r="H4">
+        <v>0.0457651413314662</v>
+      </c>
+      <c r="I4">
+        <v>0.05666933337746929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02110526602385127</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.009651419118345075</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004807822670730797</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005078667124439149</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.007731751613033576</v>
+      </c>
+      <c r="G6">
+        <v>-0.01436315866939381</v>
+      </c>
+      <c r="H6">
+        <v>-0.01977264855144144</v>
+      </c>
+      <c r="I6">
+        <v>-0.007285970096986361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04691547726320619</v>
+        <v>0.0348064509439804</v>
       </c>
       <c r="C7">
-        <v>0.01884635381584924</v>
+        <v>0.01971326350764443</v>
       </c>
       <c r="D7">
-        <v>0.03809399433844539</v>
+        <v>-0.03661608699762405</v>
       </c>
       <c r="E7">
-        <v>0.02629813308493175</v>
+        <v>0.02875514401691009</v>
       </c>
       <c r="F7">
-        <v>-0.05912357218759064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04779128906837575</v>
+      </c>
+      <c r="G7">
+        <v>0.05080382511915971</v>
+      </c>
+      <c r="H7">
+        <v>-0.003972054898709069</v>
+      </c>
+      <c r="I7">
+        <v>0.03471488282620638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05334910382678377</v>
+        <v>0.02808221234847878</v>
       </c>
       <c r="C8">
-        <v>0.05884346269553744</v>
+        <v>0.0538473198900446</v>
       </c>
       <c r="D8">
-        <v>0.02100749683777662</v>
+        <v>-0.01318204525907296</v>
       </c>
       <c r="E8">
-        <v>-0.01523512288337976</v>
+        <v>0.02202596395853695</v>
       </c>
       <c r="F8">
-        <v>-0.07166967947228976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.06989988513851696</v>
+      </c>
+      <c r="G8">
+        <v>0.04701158484944974</v>
+      </c>
+      <c r="H8">
+        <v>0.03716937641980754</v>
+      </c>
+      <c r="I8">
+        <v>0.06458660851733956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08312096536856656</v>
+        <v>0.06194072646014757</v>
       </c>
       <c r="C9">
-        <v>0.03243028050449247</v>
+        <v>0.04362447787902383</v>
       </c>
       <c r="D9">
-        <v>0.04930641834223893</v>
+        <v>-0.01961422683523904</v>
       </c>
       <c r="E9">
-        <v>-0.02509184232586183</v>
+        <v>0.03602957767693333</v>
       </c>
       <c r="F9">
-        <v>-0.06297711706005625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0785039747098019</v>
+      </c>
+      <c r="G9">
+        <v>0.0246854485085544</v>
+      </c>
+      <c r="H9">
+        <v>0.0418824624950381</v>
+      </c>
+      <c r="I9">
+        <v>0.0291349778760382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02181111691082191</v>
+        <v>0.03473445612339929</v>
       </c>
       <c r="C10">
-        <v>-0.164571026365492</v>
+        <v>-0.1621259907810148</v>
       </c>
       <c r="D10">
-        <v>-0.04529878988903635</v>
+        <v>0.01127250186971277</v>
       </c>
       <c r="E10">
-        <v>0.04462722194775895</v>
+        <v>-0.03922621678729232</v>
       </c>
       <c r="F10">
-        <v>-0.06371930501754483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06759164787896967</v>
+      </c>
+      <c r="G10">
+        <v>0.02928541446748234</v>
+      </c>
+      <c r="H10">
+        <v>0.03924169740932584</v>
+      </c>
+      <c r="I10">
+        <v>0.05240547250771267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06051132327479354</v>
+        <v>0.04961668726771699</v>
       </c>
       <c r="C11">
-        <v>0.01684875387036776</v>
+        <v>0.03294142797368661</v>
       </c>
       <c r="D11">
-        <v>0.00169742182639807</v>
+        <v>0.005390710339304263</v>
       </c>
       <c r="E11">
-        <v>0.01506971730741618</v>
+        <v>0.01064782267283811</v>
       </c>
       <c r="F11">
-        <v>-0.0402979246591766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03680366639760749</v>
+      </c>
+      <c r="G11">
+        <v>0.0002193832036502433</v>
+      </c>
+      <c r="H11">
+        <v>0.01370661714050126</v>
+      </c>
+      <c r="I11">
+        <v>0.02575469838997769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04936967125893579</v>
+        <v>0.04445994670289505</v>
       </c>
       <c r="C12">
-        <v>0.02085130558075939</v>
+        <v>0.02983031368163698</v>
       </c>
       <c r="D12">
-        <v>0.00300841088403179</v>
+        <v>-0.005821007558536262</v>
       </c>
       <c r="E12">
-        <v>-0.005269521493693765</v>
+        <v>0.01137073339597269</v>
       </c>
       <c r="F12">
-        <v>-0.02930780785139936</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0136831502620843</v>
+      </c>
+      <c r="G12">
+        <v>0.002414807831630381</v>
+      </c>
+      <c r="H12">
+        <v>0.0029681862229734</v>
+      </c>
+      <c r="I12">
+        <v>0.01472572219982939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06333000298020931</v>
+        <v>0.04358618734181876</v>
       </c>
       <c r="C13">
-        <v>0.03211129986265109</v>
+        <v>0.02820558312453849</v>
       </c>
       <c r="D13">
-        <v>0.01015170728361896</v>
+        <v>0.0147090771665499</v>
       </c>
       <c r="E13">
-        <v>0.03362568146581061</v>
+        <v>0.01081138542397901</v>
       </c>
       <c r="F13">
-        <v>-0.1069730723252107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.102852228315785</v>
+      </c>
+      <c r="G13">
+        <v>0.03782571908014151</v>
+      </c>
+      <c r="H13">
+        <v>0.02670832486369323</v>
+      </c>
+      <c r="I13">
+        <v>0.0602845641793685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03526385273950176</v>
+        <v>0.02671564595749372</v>
       </c>
       <c r="C14">
-        <v>0.02409228432629035</v>
+        <v>0.02242776926789105</v>
       </c>
       <c r="D14">
-        <v>0.03500693363698804</v>
+        <v>-0.006435827010246815</v>
       </c>
       <c r="E14">
-        <v>0.01430248097123714</v>
+        <v>0.02865325649464171</v>
       </c>
       <c r="F14">
-        <v>-0.0238704779916691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03425554478241673</v>
+      </c>
+      <c r="G14">
+        <v>0.05559996942705234</v>
+      </c>
+      <c r="H14">
+        <v>0.01283865522796098</v>
+      </c>
+      <c r="I14">
+        <v>0.0164636589534048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05236431663285378</v>
+        <v>0.04296521868590491</v>
       </c>
       <c r="C16">
-        <v>0.02444431329350842</v>
+        <v>0.03548329242987745</v>
       </c>
       <c r="D16">
-        <v>-0.001052695737698291</v>
+        <v>-0.0001525996973100839</v>
       </c>
       <c r="E16">
-        <v>0.004731617238990429</v>
+        <v>0.008156719572186905</v>
       </c>
       <c r="F16">
-        <v>-0.03387272039943749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03388811848847368</v>
+      </c>
+      <c r="G16">
+        <v>0.004834886859010349</v>
+      </c>
+      <c r="H16">
+        <v>0.004063088879854676</v>
+      </c>
+      <c r="I16">
+        <v>0.02724459401515573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06682263257326893</v>
+        <v>0.05222799336706433</v>
       </c>
       <c r="C19">
-        <v>0.05110110012103693</v>
+        <v>0.04690531609417397</v>
       </c>
       <c r="D19">
-        <v>0.0146952357981484</v>
+        <v>0.0008977224505119767</v>
       </c>
       <c r="E19">
-        <v>0.009948661608159059</v>
+        <v>0.02374079119544941</v>
       </c>
       <c r="F19">
-        <v>-0.08536437171757473</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09116863311647702</v>
+      </c>
+      <c r="G19">
+        <v>0.06305628445183342</v>
+      </c>
+      <c r="H19">
+        <v>0.009987910755719906</v>
+      </c>
+      <c r="I19">
+        <v>0.06685828348510044</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.04006503854506497</v>
+        <v>0.01912305540854293</v>
       </c>
       <c r="C20">
-        <v>0.03742909117020388</v>
+        <v>0.03057519567198837</v>
       </c>
       <c r="D20">
-        <v>0.03087774560645844</v>
+        <v>-0.006482958320706373</v>
       </c>
       <c r="E20">
-        <v>-0.003901473504048431</v>
+        <v>0.02151804387020897</v>
       </c>
       <c r="F20">
-        <v>-0.06409582186486605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06262112061803077</v>
+      </c>
+      <c r="G20">
+        <v>0.05833748616915251</v>
+      </c>
+      <c r="H20">
+        <v>0.007709465269306309</v>
+      </c>
+      <c r="I20">
+        <v>0.07518325018862472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03609221991891506</v>
+        <v>0.03333032708548904</v>
       </c>
       <c r="C21">
-        <v>0.03982821475066377</v>
+        <v>0.03203243231572993</v>
       </c>
       <c r="D21">
-        <v>0.01058234629537663</v>
+        <v>-0.0124993517338073</v>
       </c>
       <c r="E21">
-        <v>0.02676618169659288</v>
+        <v>0.007463320589303541</v>
       </c>
       <c r="F21">
-        <v>-0.1004568074433662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07896604974222685</v>
+      </c>
+      <c r="G21">
+        <v>0.02183328117990862</v>
+      </c>
+      <c r="H21">
+        <v>0.0455401310022796</v>
+      </c>
+      <c r="I21">
+        <v>0.0008105226148126649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05299515903343673</v>
+        <v>0.04182798558967452</v>
       </c>
       <c r="C24">
-        <v>0.02269046480755926</v>
+        <v>0.0309453782038127</v>
       </c>
       <c r="D24">
-        <v>0.005728745747134273</v>
+        <v>-0.0007640596511543618</v>
       </c>
       <c r="E24">
-        <v>0.003485366632204122</v>
+        <v>0.01135296263694749</v>
       </c>
       <c r="F24">
-        <v>-0.0426068756858002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03694268352812946</v>
+      </c>
+      <c r="G24">
+        <v>-0.0003055554353331415</v>
+      </c>
+      <c r="H24">
+        <v>0.005616958440975177</v>
+      </c>
+      <c r="I24">
+        <v>0.02822852583455462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05367338267622272</v>
+        <v>0.04826575773345816</v>
       </c>
       <c r="C25">
-        <v>0.01649870258510937</v>
+        <v>0.02725611698364015</v>
       </c>
       <c r="D25">
-        <v>0.00364991804044479</v>
+        <v>0.0003384656285206428</v>
       </c>
       <c r="E25">
-        <v>0.008165143303047127</v>
+        <v>0.009363052268170644</v>
       </c>
       <c r="F25">
-        <v>-0.03963373960833277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04239753909936621</v>
+      </c>
+      <c r="G25">
+        <v>6.530472958370932e-05</v>
+      </c>
+      <c r="H25">
+        <v>0.01196481683558756</v>
+      </c>
+      <c r="I25">
+        <v>0.0174568939249617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02512758695035713</v>
+        <v>0.01739774164230811</v>
       </c>
       <c r="C26">
-        <v>0.03561940858885521</v>
+        <v>0.02928335845647235</v>
       </c>
       <c r="D26">
-        <v>0.01767362412821289</v>
+        <v>0.003961450810772239</v>
       </c>
       <c r="E26">
-        <v>0.0301002957307853</v>
+        <v>0.003852973254807258</v>
       </c>
       <c r="F26">
-        <v>-0.02869899914497416</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.0409966196533395</v>
+      </c>
+      <c r="G26">
+        <v>0.03384002865533435</v>
+      </c>
+      <c r="H26">
+        <v>0.01160294626311279</v>
+      </c>
+      <c r="I26">
+        <v>0.01963918224029767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1210092934858609</v>
+        <v>0.07284205131928315</v>
       </c>
       <c r="C27">
-        <v>0.02173645916766244</v>
+        <v>0.02680012463530857</v>
       </c>
       <c r="D27">
-        <v>0.03577239584770112</v>
+        <v>-0.005509770063767439</v>
       </c>
       <c r="E27">
-        <v>-0.00565779699997137</v>
+        <v>0.0350909114057825</v>
       </c>
       <c r="F27">
-        <v>-0.08319574815135189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06439804529465144</v>
+      </c>
+      <c r="G27">
+        <v>0.01932902731523571</v>
+      </c>
+      <c r="H27">
+        <v>0.0253724512233828</v>
+      </c>
+      <c r="I27">
+        <v>0.03818420416199347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02173187462304275</v>
+        <v>0.05164303340983911</v>
       </c>
       <c r="C28">
-        <v>-0.2444353171412099</v>
+        <v>-0.2447623453418636</v>
       </c>
       <c r="D28">
-        <v>-0.06960680152613577</v>
+        <v>0.008050132260137991</v>
       </c>
       <c r="E28">
-        <v>0.0355393488176864</v>
+        <v>-0.05454567812669086</v>
       </c>
       <c r="F28">
-        <v>-0.04426959328441091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05910678196033373</v>
+      </c>
+      <c r="G28">
+        <v>0.03623219143821422</v>
+      </c>
+      <c r="H28">
+        <v>0.04598887377839423</v>
+      </c>
+      <c r="I28">
+        <v>0.07819871797589853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02797337705014487</v>
+        <v>0.02333652075988479</v>
       </c>
       <c r="C29">
-        <v>0.02165889268512069</v>
+        <v>0.01948526992222457</v>
       </c>
       <c r="D29">
-        <v>0.03824535807884763</v>
+        <v>-0.009719648443953463</v>
       </c>
       <c r="E29">
-        <v>0.00478360490923531</v>
+        <v>0.0293640105253342</v>
       </c>
       <c r="F29">
-        <v>-0.02715512552497832</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03058170721584823</v>
+      </c>
+      <c r="G29">
+        <v>0.05544024245873229</v>
+      </c>
+      <c r="H29">
+        <v>0.01741123056584942</v>
+      </c>
+      <c r="I29">
+        <v>0.0008841760863737583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1165248450301063</v>
+        <v>0.09011633237769687</v>
       </c>
       <c r="C30">
-        <v>0.0260090380093448</v>
+        <v>0.05152714388432428</v>
       </c>
       <c r="D30">
-        <v>0.02779694530809727</v>
+        <v>0.03650622728719845</v>
       </c>
       <c r="E30">
-        <v>0.02749896507928516</v>
+        <v>0.03474697047379474</v>
       </c>
       <c r="F30">
-        <v>-0.1064226696010562</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1040212471614684</v>
+      </c>
+      <c r="G30">
+        <v>0.01624810752830071</v>
+      </c>
+      <c r="H30">
+        <v>-0.01016404250430797</v>
+      </c>
+      <c r="I30">
+        <v>0.02476578754253994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06863775138644515</v>
+        <v>0.06050141002800286</v>
       </c>
       <c r="C31">
-        <v>0.02005695497968332</v>
+        <v>0.02233105701974159</v>
       </c>
       <c r="D31">
-        <v>0.02678173766797726</v>
+        <v>0.009426175912715848</v>
       </c>
       <c r="E31">
-        <v>0.04824037367647215</v>
+        <v>0.02370614071209935</v>
       </c>
       <c r="F31">
-        <v>0.0388678503089534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.004842319393802528</v>
+      </c>
+      <c r="G31">
+        <v>0.04684279365694696</v>
+      </c>
+      <c r="H31">
+        <v>0.03215122796074574</v>
+      </c>
+      <c r="I31">
+        <v>0.01205692295906302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07218605714015228</v>
+        <v>0.04264851019284463</v>
       </c>
       <c r="C32">
-        <v>0.03963141309902588</v>
+        <v>0.04723611484920903</v>
       </c>
       <c r="D32">
-        <v>0.03188835252404093</v>
+        <v>-0.01636840987317585</v>
       </c>
       <c r="E32">
-        <v>0.00749347182510435</v>
+        <v>0.03644988656416578</v>
       </c>
       <c r="F32">
-        <v>-0.09229512012090005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08157738564313738</v>
+      </c>
+      <c r="G32">
+        <v>0.0422731401605506</v>
+      </c>
+      <c r="H32">
+        <v>0.02387521454183517</v>
+      </c>
+      <c r="I32">
+        <v>0.0520560269417687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.07273554547244267</v>
+        <v>0.05660140537207298</v>
       </c>
       <c r="C33">
-        <v>0.0624827260015885</v>
+        <v>0.05835522058132869</v>
       </c>
       <c r="D33">
-        <v>0.02473061117420117</v>
+        <v>0.01765441543384917</v>
       </c>
       <c r="E33">
-        <v>0.02872214766305043</v>
+        <v>0.01791184365115717</v>
       </c>
       <c r="F33">
-        <v>-0.0649035527478138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07068614072395603</v>
+      </c>
+      <c r="G33">
+        <v>0.04005774969740706</v>
+      </c>
+      <c r="H33">
+        <v>0.03529509788999195</v>
+      </c>
+      <c r="I33">
+        <v>0.02959755629006976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05226752798497941</v>
+        <v>0.04373603761546693</v>
       </c>
       <c r="C34">
-        <v>0.02218180841319285</v>
+        <v>0.035445705437493</v>
       </c>
       <c r="D34">
-        <v>0.009708297215647041</v>
+        <v>-0.005422600682946044</v>
       </c>
       <c r="E34">
-        <v>0.002888048181343496</v>
+        <v>0.01846602206663307</v>
       </c>
       <c r="F34">
-        <v>-0.02794286102160955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03217634965827856</v>
+      </c>
+      <c r="G34">
+        <v>0.00606771549700596</v>
+      </c>
+      <c r="H34">
+        <v>0.007137725360664402</v>
+      </c>
+      <c r="I34">
+        <v>0.02313020407074858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01718644429939778</v>
+        <v>0.01587670222028659</v>
       </c>
       <c r="C36">
-        <v>0.003462621880923163</v>
+        <v>0.005518118997526415</v>
       </c>
       <c r="D36">
-        <v>0.0135908251370664</v>
+        <v>-0.004763492614330713</v>
       </c>
       <c r="E36">
-        <v>0.004298030648491391</v>
+        <v>0.009859686450487997</v>
       </c>
       <c r="F36">
-        <v>-0.01667425613076822</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02338678901175516</v>
+      </c>
+      <c r="G36">
+        <v>0.03934827533415339</v>
+      </c>
+      <c r="H36">
+        <v>0.01861395548639634</v>
+      </c>
+      <c r="I36">
+        <v>-0.009422383180081297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04375121757652217</v>
+        <v>0.035163847175238</v>
       </c>
       <c r="C38">
-        <v>0.01748198149136796</v>
+        <v>0.01753678863212791</v>
       </c>
       <c r="D38">
-        <v>0.02748817634890457</v>
+        <v>-0.004464548275913055</v>
       </c>
       <c r="E38">
-        <v>-0.007034252353634061</v>
+        <v>0.01302185075838331</v>
       </c>
       <c r="F38">
-        <v>-0.02472546934739768</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04768149635111731</v>
+      </c>
+      <c r="G38">
+        <v>0.02485692316739017</v>
+      </c>
+      <c r="H38">
+        <v>0.02577766562541323</v>
+      </c>
+      <c r="I38">
+        <v>-0.01173591634777923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07265750136630424</v>
+        <v>0.05453336606724642</v>
       </c>
       <c r="C39">
-        <v>0.0249636615726507</v>
+        <v>0.04768299948576486</v>
       </c>
       <c r="D39">
-        <v>0.0140977504328927</v>
+        <v>0.004256996775633285</v>
       </c>
       <c r="E39">
-        <v>0.02030182497603751</v>
+        <v>0.0200259660172808</v>
       </c>
       <c r="F39">
-        <v>-0.03428651969296367</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05397963286857194</v>
+      </c>
+      <c r="G39">
+        <v>-0.002594479445441479</v>
+      </c>
+      <c r="H39">
+        <v>0.02001291096421756</v>
+      </c>
+      <c r="I39">
+        <v>0.004535481980935028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.08267724902444058</v>
+        <v>0.05588652709267846</v>
       </c>
       <c r="C40">
-        <v>0.03542801956203191</v>
+        <v>0.04323961676708174</v>
       </c>
       <c r="D40">
-        <v>0.01923366100339997</v>
+        <v>0.0199370513133699</v>
       </c>
       <c r="E40">
-        <v>-0.001637190608193731</v>
+        <v>0.02691489774777975</v>
       </c>
       <c r="F40">
-        <v>-0.1104786111821119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09447454769831454</v>
+      </c>
+      <c r="G40">
+        <v>0.03744480395625433</v>
+      </c>
+      <c r="H40">
+        <v>0.02622588597746044</v>
+      </c>
+      <c r="I40">
+        <v>0.1068718561924426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.002952258341991298</v>
+        <v>0.003597661822672151</v>
       </c>
       <c r="C41">
-        <v>0.02736444663162169</v>
+        <v>0.01099842920322029</v>
       </c>
       <c r="D41">
-        <v>0.02971826529728904</v>
+        <v>-3.39213091003672e-05</v>
       </c>
       <c r="E41">
-        <v>0.008570681299371528</v>
+        <v>0.009656902474155888</v>
       </c>
       <c r="F41">
-        <v>0.002030689268027405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.009740374909641214</v>
+      </c>
+      <c r="G41">
+        <v>0.04566652745317798</v>
+      </c>
+      <c r="H41">
+        <v>0.03641802976774888</v>
+      </c>
+      <c r="I41">
+        <v>0.0127756759916414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1688711338163723</v>
+        <v>0.2290387547629999</v>
       </c>
       <c r="C42">
-        <v>0.3430614836893193</v>
+        <v>0.267484814157227</v>
       </c>
       <c r="D42">
-        <v>-0.8868927400207101</v>
+        <v>0.05650403470003769</v>
       </c>
       <c r="E42">
-        <v>0.0639982482629619</v>
+        <v>-0.9032162726014195</v>
       </c>
       <c r="F42">
-        <v>0.1214929520496897</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.165616076787945</v>
+      </c>
+      <c r="G42">
+        <v>0.005555267774525448</v>
+      </c>
+      <c r="H42">
+        <v>-0.008865412195922134</v>
+      </c>
+      <c r="I42">
+        <v>0.05413003138416297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005982729550058</v>
+        <v>0.008330118036158527</v>
       </c>
       <c r="C43">
-        <v>0.03000124475200077</v>
+        <v>0.01490539468328429</v>
       </c>
       <c r="D43">
-        <v>0.03172738010659775</v>
+        <v>0.002406444534775977</v>
       </c>
       <c r="E43">
-        <v>0.01640855108123573</v>
+        <v>0.01002166529811918</v>
       </c>
       <c r="F43">
-        <v>-0.02444873244679219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02369328597806484</v>
+      </c>
+      <c r="G43">
+        <v>0.03389675739194185</v>
+      </c>
+      <c r="H43">
+        <v>0.02111389585475711</v>
+      </c>
+      <c r="I43">
+        <v>0.02337514977575947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04531031808248561</v>
+        <v>0.03035111496308715</v>
       </c>
       <c r="C44">
-        <v>0.0493843658445396</v>
+        <v>0.04282023730886551</v>
       </c>
       <c r="D44">
-        <v>0.02886439678054765</v>
+        <v>-0.002505280518596879</v>
       </c>
       <c r="E44">
-        <v>0.03369286793329591</v>
+        <v>0.0152891624201453</v>
       </c>
       <c r="F44">
-        <v>-0.1168778217287575</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1158871709257104</v>
+      </c>
+      <c r="G44">
+        <v>0.09757579821848018</v>
+      </c>
+      <c r="H44">
+        <v>0.05105157316548137</v>
+      </c>
+      <c r="I44">
+        <v>0.05404142489622822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03222805944372386</v>
+        <v>0.02632408875093157</v>
       </c>
       <c r="C46">
-        <v>0.02801619643213685</v>
+        <v>0.03553985927674915</v>
       </c>
       <c r="D46">
-        <v>0.0394400794653908</v>
+        <v>0.00259547825277125</v>
       </c>
       <c r="E46">
-        <v>0.02397045425576694</v>
+        <v>0.03317767853532915</v>
       </c>
       <c r="F46">
-        <v>-0.01971468998632126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04284217637102831</v>
+      </c>
+      <c r="G46">
+        <v>0.05852094765792346</v>
+      </c>
+      <c r="H46">
+        <v>0.01481811414951038</v>
+      </c>
+      <c r="I46">
+        <v>0.007249456018582141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09558276986516956</v>
+        <v>0.08703747598593399</v>
       </c>
       <c r="C47">
-        <v>0.01064499091959624</v>
+        <v>0.01784861192432123</v>
       </c>
       <c r="D47">
-        <v>0.02779701469305558</v>
+        <v>0.004476002221630873</v>
       </c>
       <c r="E47">
-        <v>0.007369654511166999</v>
+        <v>0.02744857032569187</v>
       </c>
       <c r="F47">
-        <v>0.02765345136488528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01678936447852876</v>
+      </c>
+      <c r="G47">
+        <v>0.06190734070831781</v>
+      </c>
+      <c r="H47">
+        <v>0.02660094488358359</v>
+      </c>
+      <c r="I47">
+        <v>0.03294114880631949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02073023891774504</v>
+        <v>0.0206169698359918</v>
       </c>
       <c r="C48">
-        <v>0.0242473232306188</v>
+        <v>0.01801632231948013</v>
       </c>
       <c r="D48">
-        <v>0.02407687864716029</v>
+        <v>-0.001173652479715218</v>
       </c>
       <c r="E48">
-        <v>0.01682555044047523</v>
+        <v>0.01467343220645893</v>
       </c>
       <c r="F48">
-        <v>-0.02166748874437407</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02504105334902913</v>
+      </c>
+      <c r="G48">
+        <v>0.02703902707850097</v>
+      </c>
+      <c r="H48">
+        <v>0.0160327103336231</v>
+      </c>
+      <c r="I48">
+        <v>0.00910277278773085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09247807424701435</v>
+        <v>0.08823825916950549</v>
       </c>
       <c r="C50">
-        <v>0.03435093834266706</v>
+        <v>0.03872059022443933</v>
       </c>
       <c r="D50">
-        <v>0.02906411832553902</v>
+        <v>-0.01118746585407112</v>
       </c>
       <c r="E50">
-        <v>0.02276777457528813</v>
+        <v>0.02676545035868803</v>
       </c>
       <c r="F50">
-        <v>0.03008505124840768</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.009394566714533984</v>
+      </c>
+      <c r="G50">
+        <v>0.03570193127500945</v>
+      </c>
+      <c r="H50">
+        <v>-0.01016622134585863</v>
+      </c>
+      <c r="I50">
+        <v>-0.006279807916271516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.0592597361957128</v>
+        <v>0.03945960650238799</v>
       </c>
       <c r="C51">
-        <v>-0.0128954200037214</v>
+        <v>-0.00389215849672</v>
       </c>
       <c r="D51">
-        <v>0.01134939984779056</v>
+        <v>0.01115417105644398</v>
       </c>
       <c r="E51">
-        <v>0.05268843417809994</v>
+        <v>0.01051404103571686</v>
       </c>
       <c r="F51">
-        <v>-0.06442620283035277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09183203200668479</v>
+      </c>
+      <c r="G51">
+        <v>0.06924488035513143</v>
+      </c>
+      <c r="H51">
+        <v>0.05128027456105121</v>
+      </c>
+      <c r="I51">
+        <v>0.02737772574493944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1367551367771455</v>
+        <v>0.1248692072933584</v>
       </c>
       <c r="C53">
-        <v>0.01977218247623951</v>
+        <v>0.03671689957864136</v>
       </c>
       <c r="D53">
-        <v>0.05298743077246685</v>
+        <v>0.004305277382570845</v>
       </c>
       <c r="E53">
-        <v>0.009659854152734237</v>
+        <v>0.05749583796795985</v>
       </c>
       <c r="F53">
-        <v>0.06121762453682273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04929025376498713</v>
+      </c>
+      <c r="G53">
+        <v>0.009171008592328346</v>
+      </c>
+      <c r="H53">
+        <v>0.02970238169301511</v>
+      </c>
+      <c r="I53">
+        <v>0.04099136994402586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02897157007886608</v>
+        <v>0.02727257863580334</v>
       </c>
       <c r="C54">
-        <v>0.008087653383910383</v>
+        <v>0.005549644275827792</v>
       </c>
       <c r="D54">
-        <v>0.03856966884941178</v>
+        <v>-0.005311242613565188</v>
       </c>
       <c r="E54">
-        <v>0.01645088074121931</v>
+        <v>0.02803107151850265</v>
       </c>
       <c r="F54">
-        <v>-0.02529933216217472</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02953335906993311</v>
+      </c>
+      <c r="G54">
+        <v>0.05652670120766622</v>
+      </c>
+      <c r="H54">
+        <v>0.03317822902153531</v>
+      </c>
+      <c r="I54">
+        <v>0.002674597096422325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1057808109139493</v>
+        <v>0.09736803218939682</v>
       </c>
       <c r="C55">
-        <v>-0.001772370876559973</v>
+        <v>0.03026598077601889</v>
       </c>
       <c r="D55">
-        <v>0.03478675225826236</v>
+        <v>-0.01340893664394894</v>
       </c>
       <c r="E55">
-        <v>-0.04196896923423336</v>
+        <v>0.03790196444980289</v>
       </c>
       <c r="F55">
-        <v>0.01626277902465171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03578741941022</v>
+      </c>
+      <c r="G55">
+        <v>0.01947441598242278</v>
+      </c>
+      <c r="H55">
+        <v>-0.009665150738590651</v>
+      </c>
+      <c r="I55">
+        <v>0.02154899117227596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1716133525147026</v>
+        <v>0.1640069620814999</v>
       </c>
       <c r="C56">
-        <v>-0.03009038963280386</v>
+        <v>0.01677812033089346</v>
       </c>
       <c r="D56">
-        <v>0.08535218494424264</v>
+        <v>-0.0006208297090402464</v>
       </c>
       <c r="E56">
-        <v>-0.02923863257576803</v>
+        <v>0.08845915674172207</v>
       </c>
       <c r="F56">
-        <v>0.1026968198328689</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09282143346627574</v>
+      </c>
+      <c r="G56">
+        <v>-0.04146410783856109</v>
+      </c>
+      <c r="H56">
+        <v>-0.007732993747754154</v>
+      </c>
+      <c r="I56">
+        <v>0.04637397633137301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08662485822778565</v>
+        <v>0.06784088361482628</v>
       </c>
       <c r="C57">
-        <v>0.02928057502223791</v>
+        <v>0.03232052405031524</v>
       </c>
       <c r="D57">
-        <v>0.02238346958898069</v>
+        <v>0.0191808334834169</v>
       </c>
       <c r="E57">
-        <v>0.04217718435512482</v>
+        <v>0.006621336089250311</v>
       </c>
       <c r="F57">
-        <v>-0.0382062517388294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06583757496147224</v>
+      </c>
+      <c r="G57">
+        <v>0.02225453140282058</v>
+      </c>
+      <c r="H57">
+        <v>0.01791336294429298</v>
+      </c>
+      <c r="I57">
+        <v>0.02418099441266675</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1981143783636157</v>
+        <v>0.2090882002175099</v>
       </c>
       <c r="C58">
-        <v>0.04266234277394167</v>
+        <v>0.105814165588291</v>
       </c>
       <c r="D58">
-        <v>0.01183369978391111</v>
+        <v>0.08986052807051219</v>
       </c>
       <c r="E58">
-        <v>0.06829201843137411</v>
+        <v>-0.004506964886418679</v>
       </c>
       <c r="F58">
-        <v>-0.1177110946272453</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.268989227282814</v>
+      </c>
+      <c r="G58">
+        <v>0.3734856227606266</v>
+      </c>
+      <c r="H58">
+        <v>-0.3400365773984527</v>
+      </c>
+      <c r="I58">
+        <v>-0.6861788304438989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02186898954059906</v>
+        <v>0.04991941658038716</v>
       </c>
       <c r="C59">
-        <v>-0.1961726956972926</v>
+        <v>-0.1994606468528708</v>
       </c>
       <c r="D59">
-        <v>-0.02743129394650352</v>
+        <v>0.02096235113510541</v>
       </c>
       <c r="E59">
-        <v>0.02856411080803517</v>
+        <v>-0.01836000079501736</v>
       </c>
       <c r="F59">
-        <v>-0.04790169330366126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06973828332710483</v>
+      </c>
+      <c r="G59">
+        <v>-0.00509581255052728</v>
+      </c>
+      <c r="H59">
+        <v>0.01973406645901903</v>
+      </c>
+      <c r="I59">
+        <v>0.01904245768362499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1882697041020752</v>
+        <v>0.1911359417060447</v>
       </c>
       <c r="C60">
-        <v>-0.07772171929360527</v>
+        <v>-0.05157190355201963</v>
       </c>
       <c r="D60">
-        <v>-0.01122364550887184</v>
+        <v>0.05139688510924207</v>
       </c>
       <c r="E60">
-        <v>0.08234929265254094</v>
+        <v>0.009262247030989009</v>
       </c>
       <c r="F60">
-        <v>-0.1703864896178681</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2028193922555888</v>
+      </c>
+      <c r="G60">
+        <v>-0.3146408010754806</v>
+      </c>
+      <c r="H60">
+        <v>0.01824119207860927</v>
+      </c>
+      <c r="I60">
+        <v>-0.02895074715367266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04358613953912733</v>
+        <v>0.03877793759866369</v>
       </c>
       <c r="C61">
-        <v>0.01477517960456217</v>
+        <v>0.0310246647492577</v>
       </c>
       <c r="D61">
-        <v>0.007377295563672397</v>
+        <v>-0.001641754295071018</v>
       </c>
       <c r="E61">
-        <v>0.004723498706496206</v>
+        <v>0.008309493003428701</v>
       </c>
       <c r="F61">
-        <v>-0.03304015240202167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03628849553130282</v>
+      </c>
+      <c r="G61">
+        <v>-0.005461439236780963</v>
+      </c>
+      <c r="H61">
+        <v>0.01316322714478457</v>
+      </c>
+      <c r="I61">
+        <v>-0.009486019167535754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04276373853411353</v>
+        <v>0.03102083138976005</v>
       </c>
       <c r="C63">
-        <v>0.01770560491515355</v>
+        <v>0.02395810366837858</v>
       </c>
       <c r="D63">
-        <v>0.02069109024570861</v>
+        <v>0.001365486758625333</v>
       </c>
       <c r="E63">
-        <v>0.02135498097919874</v>
+        <v>0.01601164288979686</v>
       </c>
       <c r="F63">
-        <v>-0.03087013085585861</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02646079154422405</v>
+      </c>
+      <c r="G63">
+        <v>0.05069640908955442</v>
+      </c>
+      <c r="H63">
+        <v>0.00365322851228593</v>
+      </c>
+      <c r="I63">
+        <v>0.03359679418315465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07312255061201987</v>
+        <v>0.06007722745226025</v>
       </c>
       <c r="C64">
-        <v>0.04922126303447898</v>
+        <v>0.04705122034896856</v>
       </c>
       <c r="D64">
-        <v>0.05646610799170618</v>
+        <v>-0.0154739428201443</v>
       </c>
       <c r="E64">
-        <v>-0.0384431247735719</v>
+        <v>0.03944754035873261</v>
       </c>
       <c r="F64">
-        <v>-0.02873644519127621</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03646192077327007</v>
+      </c>
+      <c r="G64">
+        <v>0.01614084620470697</v>
+      </c>
+      <c r="H64">
+        <v>0.07469101500855554</v>
+      </c>
+      <c r="I64">
+        <v>0.05309880855219044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02313424505233488</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.009833781401166215</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005354100913959346</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005687911958274482</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.004220368230824712</v>
+      </c>
+      <c r="G65">
+        <v>-0.0187627776451441</v>
+      </c>
+      <c r="H65">
+        <v>-0.01837991166995579</v>
+      </c>
+      <c r="I65">
+        <v>-0.006743601092587018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08072738769273523</v>
+        <v>0.06739487882322259</v>
       </c>
       <c r="C66">
-        <v>0.03594308337920914</v>
+        <v>0.05611376939209883</v>
       </c>
       <c r="D66">
-        <v>0.038488865034465</v>
+        <v>0.01124761025396958</v>
       </c>
       <c r="E66">
-        <v>0.01890900816691596</v>
+        <v>0.04847351492951747</v>
       </c>
       <c r="F66">
-        <v>-0.07313584102663559</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06636813862791509</v>
+      </c>
+      <c r="G66">
+        <v>-0.006801559375428278</v>
+      </c>
+      <c r="H66">
+        <v>0.008059026792139252</v>
+      </c>
+      <c r="I66">
+        <v>0.03811075815398241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05564340778432796</v>
+        <v>0.04786557009336833</v>
       </c>
       <c r="C67">
-        <v>-0.007650972840727173</v>
+        <v>-0.0008881324652823959</v>
       </c>
       <c r="D67">
-        <v>0.01217216820560133</v>
+        <v>0.001337723093012338</v>
       </c>
       <c r="E67">
-        <v>0.002119943335108938</v>
+        <v>0.009764554269043926</v>
       </c>
       <c r="F67">
-        <v>-0.0185677321178045</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03702972415527669</v>
+      </c>
+      <c r="G67">
+        <v>0.006902857610050101</v>
+      </c>
+      <c r="H67">
+        <v>0.03816242555453145</v>
+      </c>
+      <c r="I67">
+        <v>-0.02532259723600959</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.0377025510220074</v>
+        <v>0.0610631708585857</v>
       </c>
       <c r="C68">
-        <v>-0.2363034571141934</v>
+        <v>-0.2353022969195099</v>
       </c>
       <c r="D68">
-        <v>-0.06078419021447649</v>
+        <v>0.02150736116208279</v>
       </c>
       <c r="E68">
-        <v>0.02950303995127395</v>
+        <v>-0.03989991776254757</v>
       </c>
       <c r="F68">
-        <v>-0.03932890325925947</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05118649623067967</v>
+      </c>
+      <c r="G68">
+        <v>0.01806816777261821</v>
+      </c>
+      <c r="H68">
+        <v>-0.0006795547851907642</v>
+      </c>
+      <c r="I68">
+        <v>0.04114418371536777</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07943187919535707</v>
+        <v>0.07306029155719894</v>
       </c>
       <c r="C69">
-        <v>0.008055676313126746</v>
+        <v>0.01849956970834976</v>
       </c>
       <c r="D69">
-        <v>0.02612380006804442</v>
+        <v>0.005652512233036372</v>
       </c>
       <c r="E69">
-        <v>0.003672991602066974</v>
+        <v>0.03048581506285364</v>
       </c>
       <c r="F69">
-        <v>0.01733977127757417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004618421228717433</v>
+      </c>
+      <c r="G69">
+        <v>0.03571810429496225</v>
+      </c>
+      <c r="H69">
+        <v>0.02080614345955721</v>
+      </c>
+      <c r="I69">
+        <v>0.01577776140600389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.03238288294481845</v>
+        <v>0.05630528500207707</v>
       </c>
       <c r="C71">
-        <v>-0.2803682357644224</v>
+        <v>-0.2547189645034726</v>
       </c>
       <c r="D71">
-        <v>-0.07276790255541658</v>
+        <v>0.0256257668040028</v>
       </c>
       <c r="E71">
-        <v>0.07940001915722353</v>
+        <v>-0.06516283072698095</v>
       </c>
       <c r="F71">
-        <v>-0.06983264028130959</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07115918161373108</v>
+      </c>
+      <c r="G71">
+        <v>0.02475024255858448</v>
+      </c>
+      <c r="H71">
+        <v>0.02594315609308251</v>
+      </c>
+      <c r="I71">
+        <v>0.05171770413950785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1319800366329848</v>
+        <v>0.1251093810701578</v>
       </c>
       <c r="C72">
-        <v>-0.0223877886860775</v>
+        <v>0.02992956688074453</v>
       </c>
       <c r="D72">
-        <v>0.03969251639397191</v>
+        <v>0.004106810915559428</v>
       </c>
       <c r="E72">
-        <v>0.006448898018748681</v>
+        <v>0.06684837697377337</v>
       </c>
       <c r="F72">
-        <v>-0.06838795744399107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08045216283945206</v>
+      </c>
+      <c r="G72">
+        <v>-0.03474520673222942</v>
+      </c>
+      <c r="H72">
+        <v>-0.03782610221067868</v>
+      </c>
+      <c r="I72">
+        <v>-0.1255448351223594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2816184401247635</v>
+        <v>0.2720312233603117</v>
       </c>
       <c r="C73">
-        <v>-0.1549526169247442</v>
+        <v>-0.07340203733181799</v>
       </c>
       <c r="D73">
-        <v>-0.07303107797567233</v>
+        <v>0.08983362562498014</v>
       </c>
       <c r="E73">
-        <v>0.1301872596229233</v>
+        <v>-0.0409089352291146</v>
       </c>
       <c r="F73">
-        <v>-0.3253957453510711</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3157507000640492</v>
+      </c>
+      <c r="G73">
+        <v>-0.5265412319776654</v>
+      </c>
+      <c r="H73">
+        <v>-0.043479203958285</v>
+      </c>
+      <c r="I73">
+        <v>-0.1101043300930362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1552757546388218</v>
+        <v>0.1496305695899522</v>
       </c>
       <c r="C74">
-        <v>0.009293280635947537</v>
+        <v>0.03201764271607101</v>
       </c>
       <c r="D74">
-        <v>0.0429514565778668</v>
+        <v>0.01145200163784435</v>
       </c>
       <c r="E74">
-        <v>0.007062980633116967</v>
+        <v>0.05138985877308571</v>
       </c>
       <c r="F74">
-        <v>0.05012953459400851</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06497337900722096</v>
+      </c>
+      <c r="G74">
+        <v>-0.0285297287073674</v>
+      </c>
+      <c r="H74">
+        <v>-0.004530256621699609</v>
+      </c>
+      <c r="I74">
+        <v>0.06913845861711633</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2300502595086949</v>
+        <v>0.244876381345071</v>
       </c>
       <c r="C75">
-        <v>-0.01653810586168176</v>
+        <v>0.01952011361882857</v>
       </c>
       <c r="D75">
-        <v>0.08412300153424386</v>
+        <v>0.02688151473354138</v>
       </c>
       <c r="E75">
-        <v>0.01208645697062043</v>
+        <v>0.1173500063679474</v>
       </c>
       <c r="F75">
-        <v>0.1484720555083184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1460848045338905</v>
+      </c>
+      <c r="G75">
+        <v>-0.01528745601524427</v>
+      </c>
+      <c r="H75">
+        <v>0.01278007387571513</v>
+      </c>
+      <c r="I75">
+        <v>0.04957070657394347</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2483189615709999</v>
+        <v>0.2626042958046288</v>
       </c>
       <c r="C76">
-        <v>-0.05398265889929232</v>
+        <v>0.00428079538701982</v>
       </c>
       <c r="D76">
-        <v>0.1005917940902269</v>
+        <v>-0.01337285532092388</v>
       </c>
       <c r="E76">
-        <v>-0.05504386835874266</v>
+        <v>0.1373144635162503</v>
       </c>
       <c r="F76">
-        <v>0.1289947006650129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1818510313828734</v>
+      </c>
+      <c r="G76">
+        <v>-0.04245667981912352</v>
+      </c>
+      <c r="H76">
+        <v>-0.05766730579563137</v>
+      </c>
+      <c r="I76">
+        <v>0.05195184639373607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1374883429598214</v>
+        <v>0.1211892406917326</v>
       </c>
       <c r="C77">
-        <v>0.06404454242502125</v>
+        <v>0.07509649144152665</v>
       </c>
       <c r="D77">
-        <v>-0.01560044602382956</v>
+        <v>0.006742265514382809</v>
       </c>
       <c r="E77">
-        <v>0.01011850879184153</v>
+        <v>-0.03157670792052891</v>
       </c>
       <c r="F77">
-        <v>-0.159907824753673</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.157489207566737</v>
+      </c>
+      <c r="G77">
+        <v>0.2101061266457096</v>
+      </c>
+      <c r="H77">
+        <v>-0.02596708227053651</v>
+      </c>
+      <c r="I77">
+        <v>0.2428540802585701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.09851408522994416</v>
+        <v>0.07244624462140342</v>
       </c>
       <c r="C78">
-        <v>0.07574547490084443</v>
+        <v>0.07721632887297376</v>
       </c>
       <c r="D78">
-        <v>-0.002862827666905351</v>
+        <v>-0.006237455886637468</v>
       </c>
       <c r="E78">
-        <v>-0.001880426580307414</v>
+        <v>0.009529560051681435</v>
       </c>
       <c r="F78">
-        <v>-0.04769140535461041</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.06604076040842977</v>
+      </c>
+      <c r="G78">
+        <v>0.0165340239934657</v>
+      </c>
+      <c r="H78">
+        <v>0.01815625833635235</v>
+      </c>
+      <c r="I78">
+        <v>0.04643082868643883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.08649674510464153</v>
+        <v>0.1347904824788101</v>
       </c>
       <c r="C80">
-        <v>-0.0608576291450607</v>
+        <v>-0.05849486354840313</v>
       </c>
       <c r="D80">
-        <v>-0.1090094414336523</v>
+        <v>-0.9740130500485052</v>
       </c>
       <c r="E80">
-        <v>-0.9446008640559821</v>
+        <v>-0.06513660748806588</v>
       </c>
       <c r="F80">
-        <v>-0.1635402658846737</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04754757172970611</v>
+      </c>
+      <c r="G80">
+        <v>-0.03112040340116103</v>
+      </c>
+      <c r="H80">
+        <v>0.03847193655086961</v>
+      </c>
+      <c r="I80">
+        <v>-0.09606480246809963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1570035582002764</v>
+        <v>0.180013334911956</v>
       </c>
       <c r="C81">
-        <v>-0.01052325919317721</v>
+        <v>0.005272670562454625</v>
       </c>
       <c r="D81">
-        <v>0.05660159519067089</v>
+        <v>0.005956911618613434</v>
       </c>
       <c r="E81">
-        <v>-0.02004887879127422</v>
+        <v>0.08508589298894979</v>
       </c>
       <c r="F81">
-        <v>0.1755902847711543</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1580620450502636</v>
+      </c>
+      <c r="G81">
+        <v>0.002671837783401995</v>
+      </c>
+      <c r="H81">
+        <v>-0.02324306334420605</v>
+      </c>
+      <c r="I81">
+        <v>0.01280835134225221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09614454974115026</v>
+        <v>0.06936607604761542</v>
       </c>
       <c r="C83">
-        <v>0.0824736689271536</v>
+        <v>0.05676248742652912</v>
       </c>
       <c r="D83">
-        <v>-0.04993889401504095</v>
+        <v>0.01372135265178464</v>
       </c>
       <c r="E83">
-        <v>0.03811852430040067</v>
+        <v>-0.03422121388916365</v>
       </c>
       <c r="F83">
-        <v>-0.006462585732247224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04553828779109658</v>
+      </c>
+      <c r="G83">
+        <v>0.04982503041546444</v>
+      </c>
+      <c r="H83">
+        <v>0.06422858513129988</v>
+      </c>
+      <c r="I83">
+        <v>0.05193110851537488</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2385661911011955</v>
+        <v>0.2488643537617382</v>
       </c>
       <c r="C85">
-        <v>0.0201032737249976</v>
+        <v>0.0491516684744189</v>
       </c>
       <c r="D85">
-        <v>0.07763797201439192</v>
+        <v>0.004837387148652833</v>
       </c>
       <c r="E85">
-        <v>-0.05933881688337057</v>
+        <v>0.1151146311848646</v>
       </c>
       <c r="F85">
-        <v>0.1506507769421123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1841346903801786</v>
+      </c>
+      <c r="G85">
+        <v>0.008495557111664867</v>
+      </c>
+      <c r="H85">
+        <v>-0.02405668813940329</v>
+      </c>
+      <c r="I85">
+        <v>0.07720107194365067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04150605290727966</v>
+        <v>0.02772700316350193</v>
       </c>
       <c r="C86">
-        <v>0.05175476399416481</v>
+        <v>0.05411913149294663</v>
       </c>
       <c r="D86">
-        <v>0.02354872398557362</v>
+        <v>0.0007174261889367968</v>
       </c>
       <c r="E86">
-        <v>0.01885211030474459</v>
+        <v>0.01794868627682309</v>
       </c>
       <c r="F86">
-        <v>-0.06587762315053081</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.07893123949798773</v>
+      </c>
+      <c r="G86">
+        <v>0.06293391400764305</v>
+      </c>
+      <c r="H86">
+        <v>0.005449945822120667</v>
+      </c>
+      <c r="I86">
+        <v>0.05413768603299334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01911804744797452</v>
+        <v>0.02892201830303352</v>
       </c>
       <c r="C87">
-        <v>-0.03865688409529325</v>
+        <v>-0.00306004669456499</v>
       </c>
       <c r="D87">
-        <v>-0.006370732062159166</v>
+        <v>-0.004186655358317962</v>
       </c>
       <c r="E87">
-        <v>0.01183321453371805</v>
+        <v>-0.005175437606935463</v>
       </c>
       <c r="F87">
-        <v>-0.09359702190951898</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09702673204817967</v>
+      </c>
+      <c r="G87">
+        <v>0.02432815744645103</v>
+      </c>
+      <c r="H87">
+        <v>-0.01424164706539917</v>
+      </c>
+      <c r="I87">
+        <v>0.02907890442946277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02667019978073338</v>
+        <v>0.03249708967464366</v>
       </c>
       <c r="C88">
-        <v>0.02432792545364455</v>
+        <v>0.009947191785882707</v>
       </c>
       <c r="D88">
-        <v>0.01941750649268272</v>
+        <v>-0.006714276882549669</v>
       </c>
       <c r="E88">
-        <v>-0.01326914777730713</v>
+        <v>0.00563287102857981</v>
       </c>
       <c r="F88">
-        <v>0.01307964178459949</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01461974417540947</v>
+      </c>
+      <c r="G88">
+        <v>0.02745890111436924</v>
+      </c>
+      <c r="H88">
+        <v>0.0424391109828017</v>
+      </c>
+      <c r="I88">
+        <v>0.006926602003866648</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.03454737304576527</v>
+        <v>0.08769462361706207</v>
       </c>
       <c r="C89">
-        <v>-0.3717276488585278</v>
+        <v>-0.3919737189028205</v>
       </c>
       <c r="D89">
-        <v>-0.1526663297476075</v>
+        <v>0.05412254468649005</v>
       </c>
       <c r="E89">
-        <v>0.07050133699341407</v>
+        <v>-0.08459603681983352</v>
       </c>
       <c r="F89">
-        <v>0.0009468688621366416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03836631127337438</v>
+      </c>
+      <c r="G89">
+        <v>0.1067430898895037</v>
+      </c>
+      <c r="H89">
+        <v>0.0427742693823651</v>
+      </c>
+      <c r="I89">
+        <v>0.08537638862169873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.02671352838120917</v>
+        <v>0.05681987799315098</v>
       </c>
       <c r="C90">
-        <v>-0.3008127102769499</v>
+        <v>-0.3251128224234868</v>
       </c>
       <c r="D90">
-        <v>-0.1014708351571491</v>
+        <v>0.02640294036783805</v>
       </c>
       <c r="E90">
-        <v>0.01073931672581323</v>
+        <v>-0.06682734364223963</v>
       </c>
       <c r="F90">
-        <v>-0.0603933830084043</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03996367011610667</v>
+      </c>
+      <c r="G90">
+        <v>0.05268084671421704</v>
+      </c>
+      <c r="H90">
+        <v>0.01715915141448774</v>
+      </c>
+      <c r="I90">
+        <v>0.0707818474794554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2722359766563594</v>
+        <v>0.287728804285985</v>
       </c>
       <c r="C91">
-        <v>0.02694686609462269</v>
+        <v>0.05037399985829997</v>
       </c>
       <c r="D91">
-        <v>0.08595915941636642</v>
+        <v>0.01388880795676412</v>
       </c>
       <c r="E91">
-        <v>-0.07216799507633767</v>
+        <v>0.1098559907168128</v>
       </c>
       <c r="F91">
-        <v>0.2692073526974809</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2740712184402163</v>
+      </c>
+      <c r="G91">
+        <v>-0.01244843541104892</v>
+      </c>
+      <c r="H91">
+        <v>-0.0448613800503353</v>
+      </c>
+      <c r="I91">
+        <v>0.06077823790813913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05503259752571146</v>
+        <v>0.1226367675905024</v>
       </c>
       <c r="C92">
-        <v>-0.3338749503812585</v>
+        <v>-0.3773379297652915</v>
       </c>
       <c r="D92">
-        <v>-0.1693954013774262</v>
+        <v>0.01350647781031997</v>
       </c>
       <c r="E92">
-        <v>-0.04450503329773728</v>
+        <v>-0.08904805588312237</v>
       </c>
       <c r="F92">
-        <v>0.1285274930750924</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1281545239123381</v>
+      </c>
+      <c r="G92">
+        <v>0.3356703461756261</v>
+      </c>
+      <c r="H92">
+        <v>-0.05533225940547621</v>
+      </c>
+      <c r="I92">
+        <v>-0.1236137641220803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.02223869089917465</v>
+        <v>0.07428811816108262</v>
       </c>
       <c r="C93">
-        <v>-0.3634241096303608</v>
+        <v>-0.3967131431515818</v>
       </c>
       <c r="D93">
-        <v>-0.1422386415648864</v>
+        <v>0.04516906418717111</v>
       </c>
       <c r="E93">
-        <v>0.02046309189135245</v>
+        <v>-0.1131199984775723</v>
       </c>
       <c r="F93">
-        <v>0.01400691568504834</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.005218579318617178</v>
+      </c>
+      <c r="G93">
+        <v>0.02695486040005089</v>
+      </c>
+      <c r="H93">
+        <v>0.05603220941255328</v>
+      </c>
+      <c r="I93">
+        <v>0.00670874708986642</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2755309423845348</v>
+        <v>0.3090613286559155</v>
       </c>
       <c r="C94">
-        <v>-0.1061740659239914</v>
+        <v>-0.04164231783741889</v>
       </c>
       <c r="D94">
-        <v>0.04706017060341302</v>
+        <v>0.04024828561111341</v>
       </c>
       <c r="E94">
-        <v>-0.05126037295257885</v>
+        <v>0.1250836086003085</v>
       </c>
       <c r="F94">
-        <v>0.3458347861955164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3159879496360727</v>
+      </c>
+      <c r="G94">
+        <v>0.05306352062982297</v>
+      </c>
+      <c r="H94">
+        <v>-0.2142510107466952</v>
+      </c>
+      <c r="I94">
+        <v>0.01330148991295329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1639501686512792</v>
+        <v>0.1315042373591379</v>
       </c>
       <c r="C95">
-        <v>0.04169600733804558</v>
+        <v>0.05386890283530713</v>
       </c>
       <c r="D95">
-        <v>0.03238125892139153</v>
+        <v>0.08421959069146587</v>
       </c>
       <c r="E95">
-        <v>0.07123148855456478</v>
+        <v>0.03274328435152135</v>
       </c>
       <c r="F95">
-        <v>0.3677611449897369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1055597633031244</v>
+      </c>
+      <c r="G95">
+        <v>0.08788927518740719</v>
+      </c>
+      <c r="H95">
+        <v>0.8745799103528673</v>
+      </c>
+      <c r="I95">
+        <v>-0.3473360265475936</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2131221021620488</v>
+        <v>0.2112624358956445</v>
       </c>
       <c r="C98">
-        <v>-0.09815541110727286</v>
+        <v>-0.06686583558904013</v>
       </c>
       <c r="D98">
-        <v>-0.05214835934214259</v>
+        <v>0.06490275297267784</v>
       </c>
       <c r="E98">
-        <v>0.09116639054086385</v>
+        <v>-0.0326246370738985</v>
       </c>
       <c r="F98">
-        <v>-0.08017490314110393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1742431466928516</v>
+      </c>
+      <c r="G98">
+        <v>-0.3433307489864389</v>
+      </c>
+      <c r="H98">
+        <v>0.009069690528872519</v>
+      </c>
+      <c r="I98">
+        <v>-0.116036334578069</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02792686745189265</v>
+        <v>0.01754487534895129</v>
       </c>
       <c r="C101">
-        <v>0.02112895942009305</v>
+        <v>0.03028099842117563</v>
       </c>
       <c r="D101">
-        <v>0.039391561809929</v>
+        <v>-0.005556014377747887</v>
       </c>
       <c r="E101">
-        <v>0.004693899604752587</v>
+        <v>0.03717783809063559</v>
       </c>
       <c r="F101">
-        <v>-0.02806401681808306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06131741479795373</v>
+      </c>
+      <c r="G101">
+        <v>0.1120635726715605</v>
+      </c>
+      <c r="H101">
+        <v>-0.02480491360790746</v>
+      </c>
+      <c r="I101">
+        <v>-0.1184638896172372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1056405614832009</v>
+        <v>0.1172263466252273</v>
       </c>
       <c r="C102">
-        <v>0.02038052284940558</v>
+        <v>0.02549993864523041</v>
       </c>
       <c r="D102">
-        <v>0.0515554443201357</v>
+        <v>-0.005889638102064497</v>
       </c>
       <c r="E102">
-        <v>-0.04017656562905494</v>
+        <v>0.05434351713109808</v>
       </c>
       <c r="F102">
-        <v>0.09524728537206852</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.115154306756206</v>
+      </c>
+      <c r="G102">
+        <v>-0.0005379105932156942</v>
+      </c>
+      <c r="H102">
+        <v>-0.0009808326855118761</v>
+      </c>
+      <c r="I102">
+        <v>0.0577684207264129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01928227918559643</v>
+        <v>0.02869061944799439</v>
       </c>
       <c r="C103">
-        <v>0.008288741295875181</v>
+        <v>0.007980701682661155</v>
       </c>
       <c r="D103">
-        <v>0.01837846311219675</v>
+        <v>-0.009120754582402026</v>
       </c>
       <c r="E103">
-        <v>0.003798080256258952</v>
+        <v>0.01841725382893572</v>
       </c>
       <c r="F103">
-        <v>0.03668177007181949</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02716192520724474</v>
+      </c>
+      <c r="G103">
+        <v>0.01750640345756208</v>
+      </c>
+      <c r="H103">
+        <v>0.009960503945159575</v>
+      </c>
+      <c r="I103">
+        <v>0.01288679681046619</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
